--- a/xlsxwriter/test/comparison/xlsx_files/chart_font09.xlsx
+++ b/xlsxwriter/test/comparison/xlsx_files/chart_font09.xlsx
@@ -62,7 +62,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="-2700000"/>
+          <a:bodyPr rot="-2700000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -166,24 +166,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68825472"/>
-        <c:axId val="68827392"/>
+        <c:axId val="108178432"/>
+        <c:axId val="108321408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68825472"/>
+        <c:axId val="108178432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68827392"/>
+        <c:crossAx val="108321408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68827392"/>
+        <c:axId val="108321408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -191,7 +191,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68825472"/>
+        <c:crossAx val="108178432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -204,7 +204,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
